--- a/Projects/L10N/l10n/cn/l10n/Patch_CN_1.xlsx
+++ b/Projects/L10N/l10n/cn/l10n/Patch_CN_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\Projects\L10N\l10n\cn\l10n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33254F6-B278-401B-BE85-5E262C1F818B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3526C20-37EE-4ED3-B0C8-C5D81559ED21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="705" windowWidth="29040" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30510" yWindow="1845" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统邮件数据表" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>##</t>
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>是否导表</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <r>
@@ -67,6 +61,10 @@
   </si>
   <si>
     <t>新增21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,12 +130,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,14 +170,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,15 +185,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -479,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -495,73 +481,64 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1001</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>1001</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>1002</v>
-      </c>
-      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
